--- a/Filled_DATATABLE.xlsx
+++ b/Filled_DATATABLE.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7340" yWindow="4030" windowWidth="28800" windowHeight="15910" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="2690" yWindow="2280" windowWidth="28800" windowHeight="15910" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Normalized Data" sheetId="27" state="visible" r:id="rId2"/>
-    <sheet name="Criteria Weights" sheetId="28" state="visible" r:id="rId3"/>
-    <sheet name="Sorted Weights" sheetId="29" state="visible" r:id="rId4"/>
-    <sheet name="Analysis Results" sheetId="30" state="visible" r:id="rId5"/>
-    <sheet name="Plot" sheetId="31" state="visible" r:id="rId6"/>
+    <sheet name="Normalized Data" sheetId="37" state="visible" r:id="rId2"/>
+    <sheet name="Criteria Weights" sheetId="38" state="visible" r:id="rId3"/>
+    <sheet name="Sorted Weights" sheetId="39" state="visible" r:id="rId4"/>
+    <sheet name="Analysis Results" sheetId="40" state="visible" r:id="rId5"/>
+    <sheet name="Plot" sheetId="41" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Alternatives</t>
   </si>
@@ -65,12 +65,75 @@
     <t>Discount Rate (%/year)</t>
   </si>
   <si>
+    <t>Noise(dB)</t>
+  </si>
+  <si>
+    <t>Wildlife Impact (1-10)</t>
+  </si>
+  <si>
+    <t>Dist. From Res. Area (km)</t>
+  </si>
+  <si>
+    <t>Dec. Cost (€)</t>
+  </si>
+  <si>
+    <t>Spring Valley</t>
+  </si>
+  <si>
+    <t>Rockland</t>
+  </si>
+  <si>
+    <t>Spinning Spur Wind Ranch</t>
+  </si>
+  <si>
+    <t>Borderlands</t>
+  </si>
+  <si>
+    <t>Tule</t>
+  </si>
+  <si>
+    <t>BENEFICIAL</t>
+  </si>
+  <si>
+    <t>V-off (m/s)</t>
+  </si>
+  <si>
+    <t>V-rated (m/s)</t>
+  </si>
+  <si>
+    <t>Avg. Wind v (m/s)</t>
+  </si>
+  <si>
+    <t>Altitude (m)</t>
+  </si>
+  <si>
+    <t>Blade Length (m)</t>
+  </si>
+  <si>
+    <t>Hub Height (m)</t>
+  </si>
+  <si>
+    <t>Rated Power (MW)</t>
+  </si>
+  <si>
+    <t>AEP(MWh/yr)</t>
+  </si>
+  <si>
+    <t>CAPEX (€)</t>
+  </si>
+  <si>
+    <t>OPEX (€/yr)</t>
+  </si>
+  <si>
+    <t>Subsidies ( €/yr)</t>
+  </si>
+  <si>
+    <t>Discount Rate (%/year)</t>
+  </si>
+  <si>
     <t>Cash Flow(€/yr)</t>
   </si>
   <si>
-    <t>CO2 Avoid (tCO2/year)</t>
-  </si>
-  <si>
     <t>Noise(dB)</t>
   </si>
   <si>
@@ -83,6 +146,30 @@
     <t>Dec. Cost (€)</t>
   </si>
   <si>
+    <t>Criteria</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Sorted Criteria</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Capacity Factor (%)</t>
+  </si>
+  <si>
+    <t>L.C.O.E (€/MWh)</t>
+  </si>
+  <si>
+    <t>NPV (€)</t>
+  </si>
+  <si>
+    <t>Power Coefficient</t>
+  </si>
+  <si>
     <t>Spring Valley</t>
   </si>
   <si>
@@ -98,100 +185,7 @@
     <t>Tule</t>
   </si>
   <si>
-    <t>BENEFICIAL</t>
-  </si>
-  <si>
-    <t>V-off (m/s)</t>
-  </si>
-  <si>
-    <t>V-rated (m/s)</t>
-  </si>
-  <si>
-    <t>Avg. Wind v (m/s)</t>
-  </si>
-  <si>
-    <t>Altitude (m)</t>
-  </si>
-  <si>
-    <t>Blade Length (m)</t>
-  </si>
-  <si>
-    <t>Hub Height (m)</t>
-  </si>
-  <si>
-    <t>Rated Power (MW)</t>
-  </si>
-  <si>
-    <t>AEP(MWh/yr)</t>
-  </si>
-  <si>
-    <t>CAPEX (€)</t>
-  </si>
-  <si>
-    <t>OPEX (€/yr)</t>
-  </si>
-  <si>
-    <t>Subsidies ( €/yr)</t>
-  </si>
-  <si>
-    <t>Discount Rate (%/year)</t>
-  </si>
-  <si>
-    <t>Cash Flow(€/yr)</t>
-  </si>
-  <si>
-    <t>CO2 Avoid (tCO2/year)</t>
-  </si>
-  <si>
-    <t>Noise(dB)</t>
-  </si>
-  <si>
-    <t>Wildlife Impact (1-10)</t>
-  </si>
-  <si>
-    <t>Dist. From Res. Area (km)</t>
-  </si>
-  <si>
-    <t>Dec. Cost (€)</t>
-  </si>
-  <si>
-    <t>Criteria</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Sorted Criteria</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>Capacity Factor (%)</t>
-  </si>
-  <si>
-    <t>L.C.O.E (€/MWh)</t>
-  </si>
-  <si>
-    <t>NPV (€)</t>
-  </si>
-  <si>
-    <t>Power Coefficient</t>
-  </si>
-  <si>
-    <t>Spring Valley</t>
-  </si>
-  <si>
-    <t>Rockland</t>
-  </si>
-  <si>
-    <t>Spinning Spur Wind Ranch</t>
-  </si>
-  <si>
-    <t>Borderlands</t>
-  </si>
-  <si>
-    <t>Tule</t>
+    <t>Cash inflow(€/yr)</t>
   </si>
   <si>
     <t xml:space="preserve">V-off (m/s)</t>
@@ -230,10 +224,7 @@
     <t xml:space="preserve">Discount Rate (%/year)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cash Flow(€/yr)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2 Avoid (tCO2/year)</t>
+    <t xml:space="preserve">Cash inflow(€/yr)</t>
   </si>
   <si>
     <t xml:space="preserve">Noise(dB)</t>
@@ -490,9 +481,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B47937DA-F650-40AA-8B95-8B4820A98571}" name="Table1" displayName="Table1" ref="A1:U7" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:U7" xr:uid="{B47937DA-F650-40AA-8B95-8B4820A98571}"/>
-  <tableColumns count="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B47937DA-F650-40AA-8B95-8B4820A98571}" name="Table1" displayName="Table1" ref="A1:T7" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:T7" xr:uid="{B47937DA-F650-40AA-8B95-8B4820A98571}"/>
+  <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{29319C39-9D5C-408A-A82B-2351C58A6871}" name="Alternatives"/>
     <tableColumn id="2" xr3:uid="{00F6C13B-C83C-498A-AF53-6D326C6E4597}" name="V-in (m/s)"/>
     <tableColumn id="3" xr3:uid="{F9BF7F8D-4FCD-4DF8-A985-B94D99F7B431}" name="V-off (m/s)"/>
@@ -508,14 +499,13 @@
     <tableColumn id="13" xr3:uid="{F0A9A95B-1A17-4071-B2FC-B5C2871B88FF}" name="OPEX (€/yr)"/>
     <tableColumn id="14" xr3:uid="{A4E2D92F-E749-4A1A-8B1E-AB4D41C77B9C}" name="Subsidies ( €/yr)"/>
     <tableColumn id="15" xr3:uid="{324DAC75-940C-4531-818A-0E520E778DCD}" name="Discount Rate (%/year)"/>
-    <tableColumn id="16" xr3:uid="{FBDFB917-1E28-4AAC-885B-A64A1F4622AE}" name="Cash Flow(€/yr)"/>
-    <tableColumn id="17" xr3:uid="{B8FC6665-CF20-4751-9BD0-0FEF3D56DD6B}" name="CO2 Avoid (tCO2/year)"/>
+    <tableColumn id="16" xr3:uid="{FBDFB917-1E28-4AAC-885B-A64A1F4622AE}" name="Cash inflow(€/yr)"/>
     <tableColumn id="18" xr3:uid="{26AC26CA-BF88-46D2-B910-1BDDAE731684}" name="Noise(dB)"/>
     <tableColumn id="19" xr3:uid="{9151D8B0-A0BC-41DB-B4CA-DECBC4F65A31}" name="Wildlife Impact (1-10)"/>
     <tableColumn id="20" xr3:uid="{AE82B38C-D30F-4865-98AF-809C55923498}" name="Dist. From Res. Area (km)"/>
     <tableColumn id="21" xr3:uid="{39AB5A5E-5178-46B1-ADDA-701969A1A414}" name="Dec. Cost (€)"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium24" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -808,33 +798,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="true" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="22.90625" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="12" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="12.90625" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="16.90625" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="18.81640625" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="14.453125" hidden="0" customWidth="1"/>
-    <col min="12" max="12" width="11.81640625" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="12.54296875" hidden="0" customWidth="1"/>
-    <col min="14" max="14" width="16.1796875" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="22.08984375" hidden="0" customWidth="1"/>
-    <col min="16" max="16" width="15.90625" hidden="0" customWidth="1"/>
-    <col min="17" max="17" width="21.81640625" hidden="0" customWidth="1"/>
-    <col min="18" max="18" width="11.81640625" hidden="0" customWidth="1"/>
-    <col min="19" max="19" width="20.81640625" hidden="0" customWidth="1"/>
-    <col min="20" max="20" width="24.08984375" hidden="0" customWidth="1"/>
-    <col min="21" max="21" width="13.36328125" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="19.54296875" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="18.1796875" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="23.08984375" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="17" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="15.08984375" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="18.81640625" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="24.81640625" hidden="0" customWidth="1"/>
+    <col min="16" max="16" width="18.54296875" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="13.453125" hidden="0" customWidth="1"/>
+    <col min="18" max="18" width="23.54296875" hidden="0" customWidth="1"/>
+    <col min="19" max="19" width="26.90625" hidden="0" customWidth="1"/>
+    <col min="20" max="20" width="15.90625" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -884,27 +873,24 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0</v>
@@ -925,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>1</v>
@@ -952,24 +938,21 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" t="n">
         <v>3</v>
@@ -1002,39 +985,36 @@
         <v>6245.1555109999999</v>
       </c>
       <c r="L3" t="n">
-        <v>3339559.021700935</v>
+        <v>3339559.0217009299</v>
       </c>
       <c r="M3" t="n">
-        <v>124912.5641835494</v>
+        <v>124912.564183549</v>
       </c>
       <c r="N3" t="n">
         <v>93598.636504929993</v>
       </c>
       <c r="O3" t="n">
-        <v>5.8461403382335444</v>
+        <v>5.84614033823354</v>
       </c>
       <c r="P3" t="n">
-        <v>286953.44234935648</v>
+        <v>286953.44234935602</v>
       </c>
       <c r="Q3" t="n">
-        <v>1929.9930342574589</v>
+        <v>100.333953128633</v>
       </c>
       <c r="R3" t="n">
-        <v>100.3339531286327</v>
+        <v>4</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>0.94422754475317505</v>
       </c>
       <c r="T3" t="n">
-        <v>0.94422754475317461</v>
-      </c>
-      <c r="U3" t="n">
-        <v>288749.22713372932</v>
+        <v>288749.22713372897</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -1070,10 +1050,10 @@
         <v>2595522.542039169</v>
       </c>
       <c r="M4" t="n">
-        <v>102486.66424277741</v>
+        <v>102486.664242777</v>
       </c>
       <c r="N4" t="n">
-        <v>77427.084067347547</v>
+        <v>77427.084067347503</v>
       </c>
       <c r="O4" t="n">
         <v>7.1323792745094803</v>
@@ -1082,24 +1062,21 @@
         <v>252627.77355356221</v>
       </c>
       <c r="Q4" t="n">
-        <v>1531.090136390058</v>
+        <v>103.5462473707468</v>
       </c>
       <c r="R4" t="n">
-        <v>103.5462473707468</v>
+        <v>7</v>
       </c>
       <c r="S4" t="n">
-        <v>7</v>
+        <v>2.524920074191741</v>
       </c>
       <c r="T4" t="n">
-        <v>2.524920074191741</v>
-      </c>
-      <c r="U4" t="n">
         <v>224078.41289550619</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="n">
         <v>3</v>
@@ -1147,24 +1124,21 @@
         <v>364366.60567519488</v>
       </c>
       <c r="Q5" t="n">
-        <v>1945.9347086168</v>
+        <v>95.271171406682825</v>
       </c>
       <c r="R5" t="n">
-        <v>95.271171406682825</v>
+        <v>5</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>1.932919207818883</v>
       </c>
       <c r="T5" t="n">
-        <v>1.932919207818883</v>
-      </c>
-      <c r="U5" t="n">
         <v>260077.16103559369</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="n">
         <v>3</v>
@@ -1212,24 +1186,21 @@
         <v>398131.07063532789</v>
       </c>
       <c r="Q6" t="n">
-        <v>3260.277857256172</v>
+        <v>96.153157746712381</v>
       </c>
       <c r="R6" t="n">
-        <v>96.153157746712381</v>
+        <v>4</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>1.6461539597832311</v>
       </c>
       <c r="T6" t="n">
-        <v>1.6461539597832311</v>
-      </c>
-      <c r="U6" t="n">
         <v>362113.94334543252</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" t="n">
         <v>3</v>
@@ -1277,18 +1248,15 @@
         <v>338085.02234864328</v>
       </c>
       <c r="Q7" t="n">
-        <v>2184.1457193394822</v>
+        <v>96.327322172116382</v>
       </c>
       <c r="R7" t="n">
-        <v>96.327322172116382</v>
+        <v>7</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>2.639065146856848</v>
       </c>
       <c r="T7" t="n">
-        <v>2.639065146856848</v>
-      </c>
-      <c r="U7" t="n">
         <v>165753.71588629839</v>
       </c>
     </row>
@@ -1321,68 +1289,64 @@
     <col min="10" max="10" width="13.71" hidden="0" customWidth="1"/>
     <col min="11" max="11" width="19.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="22.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="17.71" hidden="0" customWidth="1"/>
-    <col min="14" max="14" width="21.71" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="11.71" hidden="0" customWidth="1"/>
-    <col min="16" max="16" width="22.71" hidden="0" customWidth="1"/>
-    <col min="17" max="17" width="25.71" hidden="0" customWidth="1"/>
-    <col min="18" max="18" width="15.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="19.71" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="11.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="22.71" hidden="0" customWidth="1"/>
+    <col min="16" max="16" width="25.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="15.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2">
@@ -1399,10 +1363,10 @@
         <v>0.524835298196949</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.975</v>
+        <v>0.025</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0.40983606557377</v>
@@ -1426,18 +1390,15 @@
         <v>0.23590990365328</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.230688023662115</v>
+        <v>0.388189094101841</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.388189094101841</v>
+        <v>1</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="4" t="n">
         <v>0.373623096494794</v>
       </c>
     </row>
@@ -1455,10 +1416,10 @@
         <v>0.825624133148405</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>0</v>
@@ -1488,12 +1449,9 @@
         <v>0</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>0.932651321564125</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.932651321564125</v>
-      </c>
-      <c r="R3" s="4" t="n">
         <v>0.70297092357287</v>
       </c>
     </row>
@@ -1511,10 +1469,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.975</v>
+        <v>0.025</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>0.40983606557377</v>
@@ -1538,18 +1496,15 @@
         <v>0.767947079981569</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.239907192967432</v>
+        <v>1</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.666666666666667</v>
+        <v>0.583354807468583</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.583354807468583</v>
-      </c>
-      <c r="R4" s="4" t="n">
         <v>0.519640782811143</v>
       </c>
     </row>
@@ -1567,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>1</v>
@@ -1594,18 +1549,15 @@
         <v>1</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1</v>
+        <v>0.893416526463351</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.893416526463351</v>
+        <v>1</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1</v>
+        <v>0.414155559304801</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.414155559304801</v>
-      </c>
-      <c r="R5" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1623,10 +1575,10 @@
         <v>0.982281553398058</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.825</v>
+        <v>0.175</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>0.40983606557377</v>
@@ -1650,18 +1602,15 @@
         <v>0.587321734345704</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.377666100139966</v>
+        <v>0.872369659200701</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.872369659200701</v>
+        <v>0</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1685,154 +1634,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.0863924678338819</v>
+        <v>0.0903187679706261</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.0863924678338819</v>
+        <v>0.0903187679706261</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.0578223280309053</v>
+        <v>0.0582050876933136</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.0439112232318138</v>
+        <v>0.0459481201587533</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.0452365041826624</v>
+        <v>0.0486337932049669</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.0546125228845818</v>
+        <v>0.0584535098259459</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>0.0359758371935069</v>
+        <v>0.0385923757462699</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>0.0342102468305891</v>
+        <v>0.0367601033083367</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>0.0324979998455553</v>
+        <v>0.0347019141757016</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>0.0690148219541617</v>
+        <v>0.0698216414112166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>0.0661288280721209</v>
+        <v>0.0676328009039964</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>0.0617895271311187</v>
+        <v>0.062546112960326</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>0.0491609474402184</v>
+        <v>0.0512559855308491</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>0.0343793300152444</v>
+        <v>0.0701311636969241</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>0.0681428060087448</v>
+        <v>0.0809409844174995</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>0.0800020404677171</v>
+        <v>0.058564030760317</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>0.0584491177243019</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="4" t="n">
-        <v>0.0358809833189938</v>
+        <v>0.037174840264331</v>
       </c>
     </row>
   </sheetData>
@@ -1855,154 +1796,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.0863924678338819</v>
+        <v>0.0903187679706261</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.0863924678338819</v>
+        <v>0.0903187679706261</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.0800020404677171</v>
+        <v>0.0809409844174995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.0690148219541617</v>
+        <v>0.0701311636969241</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.0681428060087448</v>
+        <v>0.0698216414112166</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.0661288280721209</v>
+        <v>0.0676328009039964</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>0.0617895271311187</v>
+        <v>0.062546112960326</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>0.0584491177243019</v>
+        <v>0.058564030760317</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>0.0578223280309053</v>
+        <v>0.0584535098259459</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>0.0546125228845818</v>
+        <v>0.0582050876933136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>0.0491609474402184</v>
+        <v>0.0512559855308491</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>0.0452365041826624</v>
+        <v>0.0486337932049669</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>0.0439112232318138</v>
+        <v>0.0459481201587533</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>0.0359758371935069</v>
+        <v>0.0385923757462699</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>0.0358809833189938</v>
+        <v>0.037174840264331</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>0.0343793300152444</v>
+        <v>0.0367601033083367</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>0.0342102468305891</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="4" t="n">
-        <v>0.0324979998455553</v>
+        <v>0.0347019141757016</v>
       </c>
     </row>
   </sheetData>
@@ -2028,30 +1961,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>30.996404164185</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>61.2231771806334</v>
+        <v>58.946404231857</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>-93067.0295252298</v>
@@ -2062,13 +1995,13 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>31.7207185375444</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>65.5518724398948</v>
+        <v>62.5518791140094</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>-14895.4633581123</v>
@@ -2079,13 +2012,13 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>28.8126645423863</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>65.9867962677667</v>
+        <v>62.5751902833158</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>402178.625801731</v>
@@ -2096,13 +2029,13 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>35.2988851076537</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>55.2020528923309</v>
+        <v>52.1861462690533</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>-248969.833667816</v>
@@ -2113,13 +2046,13 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>35.7408137581894</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>50.0599218188836</v>
+        <v>47.6228954778236</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>846743.050041968</v>
